--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H2">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I2">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J2">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N2">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O2">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P2">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q2">
-        <v>76.85891230330978</v>
+        <v>326.7459391827633</v>
       </c>
       <c r="R2">
-        <v>691.730210729788</v>
+        <v>2940.71345264487</v>
       </c>
       <c r="S2">
-        <v>0.002430005953460076</v>
+        <v>0.006315377189560426</v>
       </c>
       <c r="T2">
-        <v>0.002430005953460076</v>
+        <v>0.006315377189560425</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H3">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I3">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J3">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N3">
         <v>2.685736</v>
       </c>
       <c r="O3">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P3">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q3">
-        <v>0.5033898858008888</v>
+        <v>1.146929234874667</v>
       </c>
       <c r="R3">
-        <v>4.530508972208001</v>
+        <v>10.322363113872</v>
       </c>
       <c r="S3">
-        <v>1.591540112590263E-05</v>
+        <v>2.2167959442997E-05</v>
       </c>
       <c r="T3">
-        <v>1.591540112590263E-05</v>
+        <v>2.2167959442997E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H4">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I4">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J4">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N4">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O4">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P4">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q4">
-        <v>2.757101065750889</v>
+        <v>9.032706156414665</v>
       </c>
       <c r="R4">
-        <v>24.813909591758</v>
+        <v>81.294355407732</v>
       </c>
       <c r="S4">
-        <v>8.716974783127746E-05</v>
+        <v>0.0001745850202848748</v>
       </c>
       <c r="T4">
-        <v>8.716974783127745E-05</v>
+        <v>0.0001745850202848748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H5">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I5">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J5">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N5">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O5">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P5">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q5">
-        <v>23.41252351025022</v>
+        <v>41.42012385304132</v>
       </c>
       <c r="R5">
-        <v>210.712711592252</v>
+        <v>372.781114677372</v>
       </c>
       <c r="S5">
-        <v>0.0007402208775856183</v>
+        <v>0.0008005721693880017</v>
       </c>
       <c r="T5">
-        <v>0.0007402208775856183</v>
+        <v>0.0008005721693880016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>493.967652</v>
       </c>
       <c r="I6">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J6">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N6">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O6">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P6">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q6">
-        <v>22506.55734779862</v>
+        <v>41994.54659664651</v>
       </c>
       <c r="R6">
-        <v>202559.0161301876</v>
+        <v>377950.9193698186</v>
       </c>
       <c r="S6">
-        <v>0.7115774437610161</v>
+        <v>0.8116746678649598</v>
       </c>
       <c r="T6">
-        <v>0.7115774437610158</v>
+        <v>0.8116746678649597</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>493.967652</v>
       </c>
       <c r="I7">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J7">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N7">
         <v>2.685736</v>
       </c>
       <c r="O7">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P7">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q7">
         <v>147.4074117568747</v>
@@ -883,10 +883,10 @@
         <v>1326.666705811872</v>
       </c>
       <c r="S7">
-        <v>0.004660499054940713</v>
+        <v>0.002849104745142053</v>
       </c>
       <c r="T7">
-        <v>0.004660499054940711</v>
+        <v>0.002849104745142053</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>493.967652</v>
       </c>
       <c r="I8">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J8">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N8">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O8">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P8">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q8">
-        <v>807.3605440201746</v>
+        <v>1160.915421100915</v>
       </c>
       <c r="R8">
-        <v>7266.244896181572</v>
+        <v>10448.23878990823</v>
       </c>
       <c r="S8">
-        <v>0.02552587422543196</v>
+        <v>0.0224382858062966</v>
       </c>
       <c r="T8">
-        <v>0.02552587422543195</v>
+        <v>0.0224382858062966</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>493.967652</v>
       </c>
       <c r="I9">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J9">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N9">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O9">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P9">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q9">
-        <v>6855.877701738418</v>
+        <v>5323.46117456254</v>
       </c>
       <c r="R9">
-        <v>61702.89931564577</v>
+        <v>47911.15057106286</v>
       </c>
       <c r="S9">
-        <v>0.2167585141677983</v>
+        <v>0.1028923736754931</v>
       </c>
       <c r="T9">
-        <v>0.2167585141677983</v>
+        <v>0.1028923736754931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H10">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I10">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J10">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N10">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O10">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P10">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q10">
-        <v>891.8954536355842</v>
+        <v>2349.920222608377</v>
       </c>
       <c r="R10">
-        <v>8027.059082720258</v>
+        <v>21149.28200347539</v>
       </c>
       <c r="S10">
-        <v>0.02819856796366755</v>
+        <v>0.04541948588027191</v>
       </c>
       <c r="T10">
-        <v>0.02819856796366755</v>
+        <v>0.04541948588027191</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H11">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I11">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J11">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N11">
         <v>2.685736</v>
       </c>
       <c r="O11">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P11">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q11">
-        <v>5.841497584303111</v>
+        <v>8.248586683812444</v>
       </c>
       <c r="R11">
-        <v>52.573478258728</v>
+        <v>74.23728015431202</v>
       </c>
       <c r="S11">
-        <v>0.0001846874159624029</v>
+        <v>0.0001594294831003948</v>
       </c>
       <c r="T11">
-        <v>0.0001846874159624028</v>
+        <v>0.0001594294831003948</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H12">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I12">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J12">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N12">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O12">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P12">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q12">
-        <v>31.99428448912811</v>
+        <v>64.96221166490244</v>
       </c>
       <c r="R12">
-        <v>287.948560402153</v>
+        <v>584.659904984122</v>
       </c>
       <c r="S12">
-        <v>0.001011545693991414</v>
+        <v>0.001255595924950254</v>
       </c>
       <c r="T12">
-        <v>0.001011545693991414</v>
+        <v>0.001255595924950254</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H13">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I13">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J13">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N13">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O13">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P13">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q13">
-        <v>271.6864271318758</v>
+        <v>297.8888946826735</v>
       </c>
       <c r="R13">
-        <v>2445.177844186882</v>
+        <v>2681.000052144062</v>
       </c>
       <c r="S13">
-        <v>0.008589760323427387</v>
+        <v>0.005757625435859026</v>
       </c>
       <c r="T13">
-        <v>0.008589760323427387</v>
+        <v>0.005757625435859025</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H14">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I14">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J14">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N14">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O14">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P14">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q14">
-        <v>5.160900193491111</v>
+        <v>10.75623880023</v>
       </c>
       <c r="R14">
-        <v>46.44810174142</v>
+        <v>96.80614920206999</v>
       </c>
       <c r="S14">
-        <v>0.00016316934262491</v>
+        <v>0.0002078976263158431</v>
       </c>
       <c r="T14">
-        <v>0.0001631693426249099</v>
+        <v>0.0002078976263158431</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H15">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I15">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J15">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N15">
         <v>2.685736</v>
       </c>
       <c r="O15">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P15">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q15">
-        <v>0.03380147963555555</v>
+        <v>0.037756076688</v>
       </c>
       <c r="R15">
-        <v>0.30421331672</v>
+        <v>0.339804690192</v>
       </c>
       <c r="S15">
-        <v>1.068682788874472E-06</v>
+        <v>7.297531105637315E-07</v>
       </c>
       <c r="T15">
-        <v>1.068682788874472E-06</v>
+        <v>7.297531105637315E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H16">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I16">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J16">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N16">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O16">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P16">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q16">
-        <v>0.1851330313855556</v>
+        <v>0.2973501206279999</v>
       </c>
       <c r="R16">
-        <v>1.66619728247</v>
+        <v>2.676151085652</v>
       </c>
       <c r="S16">
-        <v>5.853249219474555E-06</v>
+        <v>5.747211958697772E-06</v>
       </c>
       <c r="T16">
-        <v>5.853249219474555E-06</v>
+        <v>5.747211958697771E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H17">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I17">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J17">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N17">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O17">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P17">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q17">
-        <v>1.572097411908889</v>
+        <v>1.363520368188</v>
       </c>
       <c r="R17">
-        <v>14.14887670718</v>
+        <v>12.271683313692</v>
       </c>
       <c r="S17">
-        <v>4.970413912809521E-05</v>
+        <v>2.635425386553599E-05</v>
       </c>
       <c r="T17">
-        <v>4.970413912809521E-05</v>
+        <v>2.635425386553598E-05</v>
       </c>
     </row>
   </sheetData>
